--- a/company_hr_data.xlsx
+++ b/company_hr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjm\Desktop\hr_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4466293-E25B-43F4-B562-01BFC3936249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EFA8D4-1452-4543-BE71-719831F4B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인원변동" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4338E-3706-40CF-8598-581A800BDD28}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,11 +714,20 @@
       <c r="C2">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -740,6 +749,12 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -753,6 +768,9 @@
       </c>
       <c r="D4">
         <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>

--- a/company_hr_data.xlsx
+++ b/company_hr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjm\Desktop\hr_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EFA8D4-1452-4543-BE71-719831F4B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B715D-8B6C-4510-A198-A5490545B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인원변동" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4338E-3706-40CF-8598-581A800BDD28}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546645FD-2517-45B5-8DCD-5255F6FF73A5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>99.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">

--- a/company_hr_data.xlsx
+++ b/company_hr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjm\Desktop\hr_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B715D-8B6C-4510-A198-A5490545B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E3431-2CCB-400C-82AC-75E81FC9BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인원변동" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>총원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,7 +500,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -518,7 +514,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -532,7 +528,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -546,7 +542,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -560,7 +556,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -574,7 +570,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -588,7 +584,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -602,7 +598,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -616,7 +612,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>26</v>
@@ -630,7 +626,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -644,7 +640,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -667,23 +663,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4338E-3706-40CF-8598-581A800BDD28}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="9.875" customWidth="1"/>
+    <col min="2" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -700,101 +696,89 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -807,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546645FD-2517-45B5-8DCD-5255F6FF73A5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -815,13 +799,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,15 +1126,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.78</v>
@@ -1158,7 +1142,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1.34</v>

--- a/company_hr_data.xlsx
+++ b/company_hr_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjm\Desktop\hr_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E3431-2CCB-400C-82AC-75E81FC9BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D10CB-FD6F-43EB-886D-5AEDFE071455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인원변동" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4338E-3706-40CF-8598-581A800BDD28}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
